--- a/BBO Libur Kenaikan Kelas.xlsx
+++ b/BBO Libur Kenaikan Kelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\github\rapat-tahfidz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B3DEF0-1CA8-4140-8EEB-67D6532DA94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F28F8E-1D52-4816-986D-5318C8243174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -576,6 +576,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,15 +604,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,58 +616,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,8 +946,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,55 +958,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="4" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1027,13 +1027,13 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1135,13 +1135,13 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -1174,16 +1174,16 @@
       <c r="A25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
@@ -1227,7 +1227,7 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -1240,7 +1240,7 @@
   </sheetPr>
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1252,103 +1252,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="32" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="7">
         <v>30</v>
       </c>
@@ -1415,36 +1415,36 @@
       <c r="X5" s="17">
         <v>20</v>
       </c>
-      <c r="Y5" s="33"/>
+      <c r="Y5" s="38"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1604,33 +1604,33 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="35"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1974,33 +1974,33 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="25"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
     </row>
     <row r="25" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2065,33 +2065,33 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="25"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="35"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2249,33 +2249,33 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="25"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="35"/>
     </row>
     <row r="34" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2348,111 +2348,111 @@
       <c r="A38" s="9">
         <v>1</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="34" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
     </row>
@@ -2469,27 +2469,30 @@
       <c r="B46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
       <c r="W46" s="18"/>
       <c r="X46" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="I46:V46"/>
     <mergeCell ref="I42:V42"/>
     <mergeCell ref="Y4:Y5"/>
@@ -2504,9 +2507,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="L41:S41"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
